--- a/teaching/traditional_assets/database/data/vietnam/vietnam_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/vietnam/vietnam_banks_regional.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.104</v>
+        <v>0.118</v>
       </c>
       <c r="E2">
-        <v>0.186</v>
+        <v>1.714</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="L2">
-        <v>0.03920704845814978</v>
+        <v>0.03271812080536913</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,55 +636,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>174.1</v>
+        <v>223</v>
       </c>
       <c r="V2">
-        <v>1.059002433090024</v>
+        <v>1.275014293882218</v>
       </c>
       <c r="W2">
-        <v>0.01292665214233842</v>
+        <v>0.01058631921824104</v>
       </c>
       <c r="X2">
-        <v>0.08676191956596678</v>
+        <v>0.07734787539784076</v>
       </c>
       <c r="Y2">
-        <v>-0.07383526742362836</v>
+        <v>-0.06676155617959971</v>
       </c>
       <c r="Z2">
-        <v>-0.5297549591598598</v>
+        <v>0.4084989718985607</v>
       </c>
       <c r="AA2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.07078207658390469</v>
+        <v>0.06276971729480124</v>
       </c>
       <c r="AC2">
-        <v>-0.07078207658390469</v>
+        <v>-0.06276971729480124</v>
       </c>
       <c r="AD2">
-        <v>135.8</v>
+        <v>116.1</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>135.8</v>
+        <v>116.1</v>
       </c>
       <c r="AG2">
-        <v>-38.29999999999998</v>
+        <v>-106.9</v>
       </c>
       <c r="AH2">
-        <v>0.4523650899400399</v>
+        <v>0.3989690721649484</v>
       </c>
       <c r="AI2">
-        <v>0.4243750000000001</v>
+        <v>0.3859707446808511</v>
       </c>
       <c r="AJ2">
-        <v>-0.3037272006344169</v>
+        <v>-1.572058823529412</v>
       </c>
       <c r="AK2">
-        <v>-0.2625085675119944</v>
+        <v>-1.374035989717224</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.104</v>
+        <v>0.118</v>
       </c>
       <c r="E3">
-        <v>0.186</v>
+        <v>1.714</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -728,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="L3">
-        <v>0.03920704845814978</v>
+        <v>0.03271812080536913</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,55 +755,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>174.1</v>
+        <v>223</v>
       </c>
       <c r="V3">
-        <v>1.059002433090024</v>
+        <v>1.275014293882218</v>
       </c>
       <c r="W3">
-        <v>0.01292665214233842</v>
+        <v>0.01058631921824104</v>
       </c>
       <c r="X3">
-        <v>0.08676191956596678</v>
+        <v>0.07734787539784076</v>
       </c>
       <c r="Y3">
-        <v>-0.07383526742362836</v>
+        <v>-0.06676155617959971</v>
       </c>
       <c r="Z3">
-        <v>-0.5297549591598598</v>
+        <v>0.4084989718985607</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.07078207658390469</v>
+        <v>0.06276971729480124</v>
       </c>
       <c r="AC3">
-        <v>-0.07078207658390469</v>
+        <v>-0.06276971729480124</v>
       </c>
       <c r="AD3">
-        <v>135.8</v>
+        <v>116.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>135.8</v>
+        <v>116.1</v>
       </c>
       <c r="AG3">
-        <v>-38.29999999999998</v>
+        <v>-106.9</v>
       </c>
       <c r="AH3">
-        <v>0.4523650899400399</v>
+        <v>0.3989690721649484</v>
       </c>
       <c r="AI3">
-        <v>0.4243750000000001</v>
+        <v>0.3859707446808511</v>
       </c>
       <c r="AJ3">
-        <v>-0.3037272006344169</v>
+        <v>-1.572058823529412</v>
       </c>
       <c r="AK3">
-        <v>-0.2625085675119944</v>
+        <v>-1.374035989717224</v>
       </c>
       <c r="AL3">
         <v>0</v>
